--- a/Code/Results/Cases/Case_1_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357816469074919</v>
+        <v>2.108500653181125</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2120420567301124</v>
+        <v>0.1624034547986639</v>
       </c>
       <c r="E2">
-        <v>0.3475479708417311</v>
+        <v>0.2237722243905651</v>
       </c>
       <c r="F2">
-        <v>1.003296016920288</v>
+        <v>1.894015224933568</v>
       </c>
       <c r="G2">
-        <v>1.173123906424109</v>
+        <v>1.37122743773611</v>
       </c>
       <c r="H2">
-        <v>0.676881770459886</v>
+        <v>1.244373562990262</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.556386763546783</v>
+        <v>0.3312715687186483</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.423307583888118</v>
+        <v>0.9779554647491295</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.932397335901499</v>
+        <v>1.986908029744598</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1912853866411979</v>
+        <v>0.155973693295536</v>
       </c>
       <c r="E3">
-        <v>0.3141021917809184</v>
+        <v>0.2133343387172886</v>
       </c>
       <c r="F3">
-        <v>0.9441600804805006</v>
+        <v>1.910661287167287</v>
       </c>
       <c r="G3">
-        <v>1.053799975684896</v>
+        <v>1.366833221057931</v>
       </c>
       <c r="H3">
-        <v>0.6338313650387732</v>
+        <v>1.251570726095522</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.502560638169868</v>
+        <v>0.3143953838168159</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.101459359146247</v>
+        <v>0.8795472021727733</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.673577193269921</v>
+        <v>1.91263189187049</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1786461302494189</v>
+        <v>0.1519987860202292</v>
       </c>
       <c r="E4">
-        <v>0.2937032606606422</v>
+        <v>0.2069256154009835</v>
       </c>
       <c r="F4">
-        <v>0.912637013133704</v>
+        <v>1.922695372693141</v>
       </c>
       <c r="G4">
-        <v>0.9855985840474091</v>
+        <v>1.365679369274773</v>
       </c>
       <c r="H4">
-        <v>0.6101115788433589</v>
+        <v>1.257040276602012</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4697708688946989</v>
+        <v>0.3040608397307238</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.90515927602496</v>
+        <v>0.8190558897381663</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568609216175275</v>
+        <v>1.882460588766492</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1735159733662641</v>
+        <v>0.1503721614365219</v>
       </c>
       <c r="E5">
-        <v>0.2854186409528765</v>
+        <v>0.2043142071994737</v>
       </c>
       <c r="F5">
-        <v>0.9008960877685865</v>
+        <v>1.928053358282369</v>
       </c>
       <c r="G5">
-        <v>0.9589572211602189</v>
+        <v>1.365594887783487</v>
       </c>
       <c r="H5">
-        <v>0.6010709944790165</v>
+        <v>1.259532287943372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4564641096827131</v>
+        <v>0.2998566590362088</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.825427195233459</v>
+        <v>0.794388677716654</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.551207077716526</v>
+        <v>1.877456537124829</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1726651834138977</v>
+        <v>0.1501016491847196</v>
       </c>
       <c r="E6">
-        <v>0.2840445111200012</v>
+        <v>0.203880601471333</v>
       </c>
       <c r="F6">
-        <v>0.8990105256836927</v>
+        <v>1.928970410208308</v>
       </c>
       <c r="G6">
-        <v>0.9545996019533476</v>
+        <v>1.365604080936762</v>
       </c>
       <c r="H6">
-        <v>0.5996060150776685</v>
+        <v>1.259961946795997</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4542576021496103</v>
+        <v>0.2991590041704484</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.812201655643065</v>
+        <v>0.7902917288330684</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.672159642990891</v>
+        <v>1.912224598113085</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1785768679704063</v>
+        <v>0.1519768764261045</v>
       </c>
       <c r="E7">
-        <v>0.2935914254607894</v>
+        <v>0.2068903960234749</v>
       </c>
       <c r="F7">
-        <v>0.9124743212606745</v>
+        <v>1.922765796786393</v>
       </c>
       <c r="G7">
-        <v>0.9852347817606102</v>
+        <v>1.365676671583074</v>
       </c>
       <c r="H7">
-        <v>0.6099871936876298</v>
+        <v>1.257072820727217</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4695911976787102</v>
+        <v>0.3040041109791218</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.904083008041937</v>
+        <v>0.8187232850378336</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210574667901199</v>
+        <v>2.066496556876587</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2048594241164352</v>
+        <v>0.1601920601585363</v>
       </c>
       <c r="E8">
-        <v>0.3359834369908796</v>
+        <v>0.220173290808269</v>
       </c>
       <c r="F8">
-        <v>0.9818504005059765</v>
+        <v>1.899377234305945</v>
       </c>
       <c r="G8">
-        <v>1.130853079668071</v>
+        <v>1.369390247456892</v>
       </c>
       <c r="H8">
-        <v>0.6614390224777935</v>
+        <v>1.246636502507727</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5377672889700307</v>
+        <v>0.3254471320186099</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.312017427401969</v>
+        <v>0.9440388041579695</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.290283292201821</v>
+        <v>2.372043893349087</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2575472038309812</v>
+        <v>0.1760897513465949</v>
       </c>
       <c r="E9">
-        <v>0.4205251022033138</v>
+        <v>0.2462172810919583</v>
       </c>
       <c r="F9">
-        <v>1.160815156424491</v>
+        <v>1.867990958150244</v>
       </c>
       <c r="G9">
-        <v>1.462717697867134</v>
+        <v>1.389044665581878</v>
       </c>
       <c r="H9">
-        <v>0.7867184179182232</v>
+        <v>1.234553223783422</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6740326416439046</v>
+        <v>0.3677039152485406</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>3.125935987659659</v>
+        <v>1.189226715701352</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.105861762350571</v>
+        <v>2.59838254218198</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2974573285058995</v>
+        <v>0.1876444298038535</v>
       </c>
       <c r="E10">
-        <v>0.4840184129392284</v>
+        <v>0.2653449087005555</v>
       </c>
       <c r="F10">
-        <v>1.326217538152889</v>
+        <v>1.85388540771946</v>
       </c>
       <c r="G10">
-        <v>1.744409582179458</v>
+        <v>1.411196812478209</v>
       </c>
       <c r="H10">
-        <v>0.898115815541388</v>
+        <v>1.230853100196327</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7765327398159343</v>
+        <v>0.3988652137858679</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.73801658620539</v>
+        <v>1.369030366271204</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.483740760876969</v>
+        <v>2.701757446621116</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3160078377908633</v>
+        <v>0.1928747170071432</v>
       </c>
       <c r="E11">
-        <v>0.513339886391158</v>
+        <v>0.2740443249909106</v>
       </c>
       <c r="F11">
-        <v>1.410849566821767</v>
+        <v>1.849440436939659</v>
       </c>
       <c r="G11">
-        <v>1.883301185070366</v>
+        <v>1.422986010767829</v>
       </c>
       <c r="H11">
-        <v>0.9541701319797085</v>
+        <v>1.230308815569572</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8238947980066058</v>
+        <v>0.4130644161242856</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.020983668575525</v>
+        <v>1.450757496733672</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.628013451554693</v>
+        <v>2.740962091939593</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.323102498628117</v>
+        <v>0.1948516119541068</v>
       </c>
       <c r="E12">
-        <v>0.5245194442204308</v>
+        <v>0.27733820599898</v>
       </c>
       <c r="F12">
-        <v>1.444445266854586</v>
+        <v>1.848043029040838</v>
       </c>
       <c r="G12">
-        <v>1.937687920979386</v>
+        <v>1.427699422124704</v>
       </c>
       <c r="H12">
-        <v>0.9762848945513838</v>
+        <v>1.230267675145768</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.841955785339735</v>
+        <v>0.4184444881133231</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.128927447532817</v>
+        <v>1.481695757096929</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.596886042178937</v>
+        <v>2.732516061359604</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3215711916332253</v>
+        <v>0.1944260162613034</v>
       </c>
       <c r="E13">
-        <v>0.5221081092741926</v>
+        <v>0.2766288296241157</v>
       </c>
       <c r="F13">
-        <v>1.437137565153265</v>
+        <v>1.848331238119783</v>
       </c>
       <c r="G13">
-        <v>1.925890785153598</v>
+        <v>1.426673179513045</v>
       </c>
       <c r="H13">
-        <v>0.971480574197443</v>
+        <v>1.230269179345981</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8380600686666071</v>
+        <v>0.417285657867609</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.105642251704921</v>
+        <v>1.475033102279383</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.495585368963759</v>
+        <v>2.704981660217186</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3165900343154391</v>
+        <v>0.1930374313039067</v>
       </c>
       <c r="E14">
-        <v>0.5142580269044004</v>
+        <v>0.2743153233140063</v>
       </c>
       <c r="F14">
-        <v>1.413581262491135</v>
+        <v>1.849319730281621</v>
       </c>
       <c r="G14">
-        <v>1.88773817393232</v>
+        <v>1.423368776964281</v>
       </c>
       <c r="H14">
-        <v>0.9559710089259283</v>
+        <v>1.230302117841291</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.825378033869157</v>
+        <v>0.4135069764486445</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.029847563904752</v>
+        <v>1.453303009588524</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.433695292224684</v>
+        <v>2.688123690460316</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3135484720259569</v>
+        <v>0.1921864020392263</v>
       </c>
       <c r="E15">
-        <v>0.50945996524176</v>
+        <v>0.272898178019318</v>
       </c>
       <c r="F15">
-        <v>1.399360196775831</v>
+        <v>1.849962498465459</v>
       </c>
       <c r="G15">
-        <v>1.864609809855835</v>
+        <v>1.421377261388727</v>
       </c>
       <c r="H15">
-        <v>0.9465903122269879</v>
+        <v>1.23034381295227</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8176269852223044</v>
+        <v>0.4111928261926039</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.983528504654714</v>
+        <v>1.439991380938068</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.081320406148564</v>
+        <v>2.591635003663384</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.296254039740603</v>
+        <v>0.1873020982342695</v>
       </c>
       <c r="E16">
-        <v>0.4821120829980856</v>
+        <v>0.2647763327395509</v>
       </c>
       <c r="F16">
-        <v>1.320891806883026</v>
+        <v>1.854215767154329</v>
       </c>
       <c r="G16">
-        <v>1.735569204490872</v>
+        <v>1.410461059727851</v>
       </c>
       <c r="H16">
-        <v>0.8945702104956581</v>
+        <v>1.230911690207819</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7734539753109004</v>
+        <v>0.3979377169908105</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.719626608657904</v>
+        <v>1.36368792717019</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.86703680820375</v>
+        <v>2.532547564287654</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2857544170579445</v>
+        <v>0.184299103527664</v>
       </c>
       <c r="E17">
-        <v>0.4654560258394582</v>
+        <v>0.2597932751706296</v>
       </c>
       <c r="F17">
-        <v>1.275290680890208</v>
+        <v>1.857331627680963</v>
       </c>
       <c r="G17">
-        <v>1.659324144590812</v>
+        <v>1.404204886871412</v>
       </c>
       <c r="H17">
-        <v>0.8641118719922076</v>
+        <v>1.23155261486491</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.746556993548424</v>
+        <v>0.389812025062696</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.558984347029309</v>
+        <v>1.316860855888308</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.744420247080711</v>
+        <v>2.498600865977721</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2797516104439524</v>
+        <v>0.1825694113561269</v>
       </c>
       <c r="E18">
-        <v>0.4559162425732026</v>
+        <v>0.2569269869784492</v>
       </c>
       <c r="F18">
-        <v>1.249932604444325</v>
+        <v>1.859309238466821</v>
       </c>
       <c r="G18">
-        <v>1.616465085196381</v>
+        <v>1.400767475666072</v>
       </c>
       <c r="H18">
-        <v>0.8470915896263591</v>
+        <v>1.232028386422314</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7311542954431189</v>
+        <v>0.3851405952023725</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.467004045907515</v>
+        <v>1.289920933335907</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.703007819228731</v>
+        <v>2.487113782569395</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2777250293928688</v>
+        <v>0.1819833456139719</v>
       </c>
       <c r="E19">
-        <v>0.4526927932814715</v>
+        <v>0.255956486873103</v>
       </c>
       <c r="F19">
-        <v>1.241490737230748</v>
+        <v>1.860010605630265</v>
       </c>
       <c r="G19">
-        <v>1.602117716889154</v>
+        <v>1.399631186559191</v>
       </c>
       <c r="H19">
-        <v>0.8414112065060522</v>
+        <v>1.232207837744852</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7259502623982996</v>
+        <v>0.3835593249174565</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.435928760682543</v>
+        <v>1.280798483808553</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.889780776978455</v>
+        <v>2.538833507565869</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2868682742292208</v>
+        <v>0.1846190306501967</v>
       </c>
       <c r="E20">
-        <v>0.4672248270904831</v>
+        <v>0.2603237482574841</v>
       </c>
       <c r="F20">
-        <v>1.280053566310286</v>
+        <v>1.856980729184258</v>
       </c>
       <c r="G20">
-        <v>1.66733590382691</v>
+        <v>1.404854185995219</v>
       </c>
       <c r="H20">
-        <v>0.8673018371409853</v>
+        <v>1.231473291327148</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7494130738374025</v>
+        <v>0.3906767876770658</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.576040897117821</v>
+        <v>1.321846325913043</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.525306213923898</v>
+        <v>2.713067588626473</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3180511062415547</v>
+        <v>0.1934453925121602</v>
       </c>
       <c r="E21">
-        <v>0.5165616051981914</v>
+        <v>0.2749948680749128</v>
       </c>
       <c r="F21">
-        <v>1.420456611089975</v>
+        <v>1.849021611261193</v>
       </c>
       <c r="G21">
-        <v>1.898893761940627</v>
+        <v>1.424332576410478</v>
       </c>
       <c r="H21">
-        <v>0.9605014408885495</v>
+        <v>1.230287956252027</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8290994582827125</v>
+        <v>0.414616783640696</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.052087647984649</v>
+        <v>1.459685940301824</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.947633340184211</v>
+        <v>2.82728225887297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3388465248578854</v>
+        <v>0.1991923751856604</v>
       </c>
       <c r="E22">
-        <v>0.5492574715391498</v>
+        <v>0.2845809082402653</v>
       </c>
       <c r="F22">
-        <v>1.52135052358885</v>
+        <v>1.845486831532142</v>
       </c>
       <c r="G22">
-        <v>2.060813724979624</v>
+        <v>1.438516125160987</v>
       </c>
       <c r="H22">
-        <v>1.026655872289524</v>
+        <v>1.230475394260338</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8819251843824247</v>
+        <v>0.4302811504855697</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.367897265732267</v>
+        <v>1.549713448976888</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.721521443063693</v>
+        <v>2.766292531599618</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3277046697929507</v>
+        <v>0.1961270618392916</v>
       </c>
       <c r="E23">
-        <v>0.5317608997872938</v>
+        <v>0.27946491938701</v>
       </c>
       <c r="F23">
-        <v>1.466593086494854</v>
+        <v>1.847220126579117</v>
       </c>
       <c r="G23">
-        <v>1.973334656540004</v>
+        <v>1.430812157106686</v>
       </c>
       <c r="H23">
-        <v>0.9908258260507239</v>
+        <v>1.230286923790004</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8536553203357897</v>
+        <v>0.4219192063569892</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.198863819395285</v>
+        <v>1.50166958299252</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.879496442625907</v>
+        <v>2.53599155950667</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2863645958154706</v>
+        <v>0.1844744016637918</v>
       </c>
       <c r="E24">
-        <v>0.4664250408626316</v>
+        <v>0.26008392591838</v>
       </c>
       <c r="F24">
-        <v>1.27789760594014</v>
+        <v>1.857138790405116</v>
       </c>
       <c r="G24">
-        <v>1.663710767930326</v>
+        <v>1.404560141753961</v>
       </c>
       <c r="H24">
-        <v>0.8658581341706224</v>
+        <v>1.231508819387585</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7481216522669456</v>
+        <v>0.3902858280462311</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.568328472801568</v>
+        <v>1.319592452237941</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.9948899416475</v>
+        <v>2.289060904840881</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2431232871315387</v>
+        <v>0.1718113205381684</v>
       </c>
       <c r="E25">
-        <v>0.3974535435726168</v>
+        <v>0.239172591442653</v>
       </c>
       <c r="F25">
-        <v>1.107061628491664</v>
+        <v>1.874918619304935</v>
       </c>
       <c r="G25">
-        <v>1.367057485762842</v>
+        <v>1.38238562609385</v>
       </c>
       <c r="H25">
-        <v>0.7497861945028319</v>
+        <v>1.236917754099238</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6368155520126066</v>
+        <v>0.3562513486015746</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.903719012678039</v>
+        <v>1.122956266358358</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.108500653181125</v>
+        <v>3.357816469074805</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1624034547986639</v>
+        <v>0.2120420567299846</v>
       </c>
       <c r="E2">
-        <v>0.2237722243905651</v>
+        <v>0.3475479708417097</v>
       </c>
       <c r="F2">
-        <v>1.894015224933568</v>
+        <v>1.003296016920288</v>
       </c>
       <c r="G2">
-        <v>1.37122743773611</v>
+        <v>1.173123906424109</v>
       </c>
       <c r="H2">
-        <v>1.244373562990262</v>
+        <v>0.6768817704599712</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3312715687186483</v>
+        <v>0.5563867635468256</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9779554647491295</v>
+        <v>2.423307583888288</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.986908029744598</v>
+        <v>2.932397335901783</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.155973693295536</v>
+        <v>0.1912853866410558</v>
       </c>
       <c r="E3">
-        <v>0.2133343387172886</v>
+        <v>0.3141021917809041</v>
       </c>
       <c r="F3">
-        <v>1.910661287167287</v>
+        <v>0.9441600804804722</v>
       </c>
       <c r="G3">
-        <v>1.366833221057931</v>
+        <v>1.053799975684896</v>
       </c>
       <c r="H3">
-        <v>1.251570726095522</v>
+        <v>0.633831365038759</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3143953838168159</v>
+        <v>0.5025606381698822</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8795472021727733</v>
+        <v>2.10145935914619</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.91263189187049</v>
+        <v>2.673577193270262</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1519987860202292</v>
+        <v>0.1786461302494189</v>
       </c>
       <c r="E4">
-        <v>0.2069256154009835</v>
+        <v>0.2937032606606493</v>
       </c>
       <c r="F4">
-        <v>1.922695372693141</v>
+        <v>0.9126370131336756</v>
       </c>
       <c r="G4">
-        <v>1.365679369274773</v>
+        <v>0.9855985840474091</v>
       </c>
       <c r="H4">
-        <v>1.257040276602012</v>
+        <v>0.6101115788433447</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3040608397307238</v>
+        <v>0.4697708688947131</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8190558897381663</v>
+        <v>1.905159276025046</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.882460588766492</v>
+        <v>2.568609216175219</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1503721614365219</v>
+        <v>0.1735159733661931</v>
       </c>
       <c r="E5">
-        <v>0.2043142071994737</v>
+        <v>0.2854186409528765</v>
       </c>
       <c r="F5">
-        <v>1.928053358282369</v>
+        <v>0.9008960877685723</v>
       </c>
       <c r="G5">
-        <v>1.365594887783487</v>
+        <v>0.9589572211601194</v>
       </c>
       <c r="H5">
-        <v>1.259532287943372</v>
+        <v>0.6010709944790307</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2998566590362088</v>
+        <v>0.45646410968277</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.794388677716654</v>
+        <v>1.825427195233431</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.877456537124829</v>
+        <v>2.55120707771664</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1501016491847196</v>
+        <v>0.172665183413784</v>
       </c>
       <c r="E6">
-        <v>0.203880601471333</v>
+        <v>0.2840445111200083</v>
       </c>
       <c r="F6">
-        <v>1.928970410208308</v>
+        <v>0.8990105256836927</v>
       </c>
       <c r="G6">
-        <v>1.365604080936762</v>
+        <v>0.9545996019533334</v>
       </c>
       <c r="H6">
-        <v>1.259961946795997</v>
+        <v>0.5996060150776543</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2991590041704484</v>
+        <v>0.4542576021496387</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7902917288330684</v>
+        <v>1.81220165564315</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.912224598113085</v>
+        <v>2.672159642991062</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1519768764261045</v>
+        <v>0.1785768679702784</v>
       </c>
       <c r="E7">
-        <v>0.2068903960234749</v>
+        <v>0.2935914254607965</v>
       </c>
       <c r="F7">
-        <v>1.922765796786393</v>
+        <v>0.9124743212606745</v>
       </c>
       <c r="G7">
-        <v>1.365676671583074</v>
+        <v>0.9852347817605676</v>
       </c>
       <c r="H7">
-        <v>1.257072820727217</v>
+        <v>0.6099871936876298</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3040041109791218</v>
+        <v>0.4695911976787528</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8187232850378336</v>
+        <v>1.904083008041766</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.066496556876587</v>
+        <v>3.210574667901426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1601920601585363</v>
+        <v>0.2048594241163073</v>
       </c>
       <c r="E8">
-        <v>0.220173290808269</v>
+        <v>0.3359834369908867</v>
       </c>
       <c r="F8">
-        <v>1.899377234305945</v>
+        <v>0.9818504005059907</v>
       </c>
       <c r="G8">
-        <v>1.369390247456892</v>
+        <v>1.130853079668043</v>
       </c>
       <c r="H8">
-        <v>1.246636502507727</v>
+        <v>0.6614390224777935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3254471320186099</v>
+        <v>0.5377672889700165</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9440388041579695</v>
+        <v>2.312017427402054</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.372043893349087</v>
+        <v>4.290283292201821</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1760897513465949</v>
+        <v>0.257547203830967</v>
       </c>
       <c r="E9">
-        <v>0.2462172810919583</v>
+        <v>0.4205251022033352</v>
       </c>
       <c r="F9">
-        <v>1.867990958150244</v>
+        <v>1.160815156424491</v>
       </c>
       <c r="G9">
-        <v>1.389044665581878</v>
+        <v>1.462717697866992</v>
       </c>
       <c r="H9">
-        <v>1.234553223783422</v>
+        <v>0.7867184179182232</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3677039152485406</v>
+        <v>0.6740326416438762</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.189226715701352</v>
+        <v>3.125935987659659</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.59838254218198</v>
+        <v>5.105861762350514</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1876444298038535</v>
+        <v>0.2974573285057573</v>
       </c>
       <c r="E10">
-        <v>0.2653449087005555</v>
+        <v>0.4840184129392497</v>
       </c>
       <c r="F10">
-        <v>1.85388540771946</v>
+        <v>1.326217538152889</v>
       </c>
       <c r="G10">
-        <v>1.411196812478209</v>
+        <v>1.744409582179486</v>
       </c>
       <c r="H10">
-        <v>1.230853100196327</v>
+        <v>0.898115815541388</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3988652137858679</v>
+        <v>0.7765327398158774</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.369030366271204</v>
+        <v>3.738016586205447</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.701757446621116</v>
+        <v>5.483740760876742</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1928747170071432</v>
+        <v>0.3160078377911759</v>
       </c>
       <c r="E11">
-        <v>0.2740443249909106</v>
+        <v>0.5133398863911367</v>
       </c>
       <c r="F11">
-        <v>1.849440436939659</v>
+        <v>1.410849566821767</v>
       </c>
       <c r="G11">
-        <v>1.422986010767829</v>
+        <v>1.883301185070337</v>
       </c>
       <c r="H11">
-        <v>1.230308815569572</v>
+        <v>0.9541701319797085</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4130644161242856</v>
+        <v>0.8238947980067195</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.450757496733672</v>
+        <v>4.020983668575468</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.740962091939593</v>
+        <v>5.628013451554637</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1948516119541068</v>
+        <v>0.3231024986280175</v>
       </c>
       <c r="E12">
-        <v>0.27733820599898</v>
+        <v>0.5245194442204379</v>
       </c>
       <c r="F12">
-        <v>1.848043029040838</v>
+        <v>1.444445266854586</v>
       </c>
       <c r="G12">
-        <v>1.427699422124704</v>
+        <v>1.937687920979357</v>
       </c>
       <c r="H12">
-        <v>1.230267675145768</v>
+        <v>0.9762848945514975</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4184444881133231</v>
+        <v>0.8419557853398203</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.481695757096929</v>
+        <v>4.12892744753276</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.732516061359604</v>
+        <v>5.596886042178994</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1944260162613034</v>
+        <v>0.3215711916332253</v>
       </c>
       <c r="E13">
-        <v>0.2766288296241157</v>
+        <v>0.5221081092742068</v>
       </c>
       <c r="F13">
-        <v>1.848331238119783</v>
+        <v>1.43713756515325</v>
       </c>
       <c r="G13">
-        <v>1.426673179513045</v>
+        <v>1.92589078515357</v>
       </c>
       <c r="H13">
-        <v>1.230269179345981</v>
+        <v>0.9714805741974146</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.417285657867609</v>
+        <v>0.8380600686666497</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.475033102279383</v>
+        <v>4.105642251705035</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.704981660217186</v>
+        <v>5.495585368963475</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1930374313039067</v>
+        <v>0.316590034315638</v>
       </c>
       <c r="E14">
-        <v>0.2743153233140063</v>
+        <v>0.5142580269044217</v>
       </c>
       <c r="F14">
-        <v>1.849319730281621</v>
+        <v>1.413581262491121</v>
       </c>
       <c r="G14">
-        <v>1.423368776964281</v>
+        <v>1.887738173932263</v>
       </c>
       <c r="H14">
-        <v>1.230302117841291</v>
+        <v>0.9559710089259568</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4135069764486445</v>
+        <v>0.8253780338691286</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.453303009588524</v>
+        <v>4.029847563904639</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.688123690460316</v>
+        <v>5.433695292224741</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1921864020392263</v>
+        <v>0.3135484720262696</v>
       </c>
       <c r="E15">
-        <v>0.272898178019318</v>
+        <v>0.5094599652417529</v>
       </c>
       <c r="F15">
-        <v>1.849962498465459</v>
+        <v>1.399360196775817</v>
       </c>
       <c r="G15">
-        <v>1.421377261388727</v>
+        <v>1.864609809855864</v>
       </c>
       <c r="H15">
-        <v>1.23034381295227</v>
+        <v>0.9465903122269594</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4111928261926039</v>
+        <v>0.8176269852224181</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.439991380938068</v>
+        <v>3.983528504654885</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.591635003663384</v>
+        <v>5.081320406148222</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1873020982342695</v>
+        <v>0.2962540397403899</v>
       </c>
       <c r="E16">
-        <v>0.2647763327395509</v>
+        <v>0.4821120829980714</v>
       </c>
       <c r="F16">
-        <v>1.854215767154329</v>
+        <v>1.320891806883012</v>
       </c>
       <c r="G16">
-        <v>1.410461059727851</v>
+        <v>1.735569204490844</v>
       </c>
       <c r="H16">
-        <v>1.230911690207819</v>
+        <v>0.8945702104956581</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3979377169908105</v>
+        <v>0.773453975310872</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.36368792717019</v>
+        <v>3.719626608657848</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.532547564287654</v>
+        <v>4.867036808203636</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.184299103527664</v>
+        <v>0.2857544170579729</v>
       </c>
       <c r="E17">
-        <v>0.2597932751706296</v>
+        <v>0.4654560258394511</v>
       </c>
       <c r="F17">
-        <v>1.857331627680963</v>
+        <v>1.275290680890208</v>
       </c>
       <c r="G17">
-        <v>1.404204886871412</v>
+        <v>1.659324144590784</v>
       </c>
       <c r="H17">
-        <v>1.23155261486491</v>
+        <v>0.8641118719922076</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.389812025062696</v>
+        <v>0.7465569935483671</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.316860855888308</v>
+        <v>3.558984347029309</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.498600865977721</v>
+        <v>4.744420247080598</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1825694113561269</v>
+        <v>0.279751610444066</v>
       </c>
       <c r="E18">
-        <v>0.2569269869784492</v>
+        <v>0.4559162425731955</v>
       </c>
       <c r="F18">
-        <v>1.859309238466821</v>
+        <v>1.249932604444339</v>
       </c>
       <c r="G18">
-        <v>1.400767475666072</v>
+        <v>1.616465085196324</v>
       </c>
       <c r="H18">
-        <v>1.232028386422314</v>
+        <v>0.8470915896263875</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3851405952023725</v>
+        <v>0.7311542954430479</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.289920933335907</v>
+        <v>3.467004045907515</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.487113782569395</v>
+        <v>4.703007819228674</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1819833456139719</v>
+        <v>0.2777250293930109</v>
       </c>
       <c r="E19">
-        <v>0.255956486873103</v>
+        <v>0.4526927932814644</v>
       </c>
       <c r="F19">
-        <v>1.860010605630265</v>
+        <v>1.241490737230762</v>
       </c>
       <c r="G19">
-        <v>1.399631186559191</v>
+        <v>1.602117716889154</v>
       </c>
       <c r="H19">
-        <v>1.232207837744852</v>
+        <v>0.8414112065060806</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3835593249174565</v>
+        <v>0.7259502623983281</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.280798483808553</v>
+        <v>3.435928760682486</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.538833507565869</v>
+        <v>4.889780776978228</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1846190306501967</v>
+        <v>0.2868682742292208</v>
       </c>
       <c r="E20">
-        <v>0.2603237482574841</v>
+        <v>0.4672248270905044</v>
       </c>
       <c r="F20">
-        <v>1.856980729184258</v>
+        <v>1.280053566310286</v>
       </c>
       <c r="G20">
-        <v>1.404854185995219</v>
+        <v>1.667335903826938</v>
       </c>
       <c r="H20">
-        <v>1.231473291327148</v>
+        <v>0.8673018371409853</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3906767876770658</v>
+        <v>0.7494130738374736</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.321846325913043</v>
+        <v>3.576040897117878</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.713067588626473</v>
+        <v>5.525306213924011</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1934453925121602</v>
+        <v>0.3180511062415263</v>
       </c>
       <c r="E21">
-        <v>0.2749948680749128</v>
+        <v>0.5165616051982127</v>
       </c>
       <c r="F21">
-        <v>1.849021611261193</v>
+        <v>1.420456611089989</v>
       </c>
       <c r="G21">
-        <v>1.424332576410478</v>
+        <v>1.89889376194057</v>
       </c>
       <c r="H21">
-        <v>1.230287956252027</v>
+        <v>0.9605014408885495</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.414616783640696</v>
+        <v>0.8290994582826556</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.459685940301824</v>
+        <v>4.052087647984763</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.82728225887297</v>
+        <v>5.947633340184211</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1991923751856604</v>
+        <v>0.338846524857999</v>
       </c>
       <c r="E22">
-        <v>0.2845809082402653</v>
+        <v>0.5492574715391569</v>
       </c>
       <c r="F22">
-        <v>1.845486831532142</v>
+        <v>1.521350523588822</v>
       </c>
       <c r="G22">
-        <v>1.438516125160987</v>
+        <v>2.060813724979567</v>
       </c>
       <c r="H22">
-        <v>1.230475394260338</v>
+        <v>1.026655872289496</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4302811504855697</v>
+        <v>0.8819251843823679</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.549713448976888</v>
+        <v>4.367897265732211</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.766292531599618</v>
+        <v>5.721521443063693</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1961270618392916</v>
+        <v>0.3277046697929222</v>
       </c>
       <c r="E23">
-        <v>0.27946491938701</v>
+        <v>0.5317608997873009</v>
       </c>
       <c r="F23">
-        <v>1.847220126579117</v>
+        <v>1.466593086494854</v>
       </c>
       <c r="G23">
-        <v>1.430812157106686</v>
+        <v>1.973334656540004</v>
       </c>
       <c r="H23">
-        <v>1.230286923790004</v>
+        <v>0.9908258260506102</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4219192063569892</v>
+        <v>0.853655320335676</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.50166958299252</v>
+        <v>4.198863819395285</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.53599155950667</v>
+        <v>4.879496442625964</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1844744016637918</v>
+        <v>0.2863645958153853</v>
       </c>
       <c r="E24">
-        <v>0.26008392591838</v>
+        <v>0.4664250408626458</v>
       </c>
       <c r="F24">
-        <v>1.857138790405116</v>
+        <v>1.27789760594014</v>
       </c>
       <c r="G24">
-        <v>1.404560141753961</v>
+        <v>1.663710767930326</v>
       </c>
       <c r="H24">
-        <v>1.231508819387585</v>
+        <v>0.8658581341706224</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3902858280462311</v>
+        <v>0.7481216522669314</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.319592452237941</v>
+        <v>3.568328472801568</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.289060904840881</v>
+        <v>3.994889941647671</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1718113205381684</v>
+        <v>0.2431232871315387</v>
       </c>
       <c r="E25">
-        <v>0.239172591442653</v>
+        <v>0.3974535435725954</v>
       </c>
       <c r="F25">
-        <v>1.874918619304935</v>
+        <v>1.107061628491635</v>
       </c>
       <c r="G25">
-        <v>1.38238562609385</v>
+        <v>1.367057485762842</v>
       </c>
       <c r="H25">
-        <v>1.236917754099238</v>
+        <v>0.7497861945028319</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3562513486015746</v>
+        <v>0.6368155520126351</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.122956266358358</v>
+        <v>2.903719012678323</v>
       </c>
       <c r="M25">
         <v>0</v>
